--- a/Sorting Methods.xlsx
+++ b/Sorting Methods.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9e5ecfcfdf6af548/Documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="610" documentId="8_{ACBD3AEE-6F34-48E6-8012-A09474D3339B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A4DC874-96A8-1A4A-949A-9628251AD81E}"/>
+  <xr:revisionPtr revIDLastSave="611" documentId="8_{ACBD3AEE-6F34-48E6-8012-A09474D3339B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1665978-EC9C-44CA-93A9-9C4062F8FC2F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{EB5A681C-045A-4C3F-891F-F1EE4B56C50B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{EB5A681C-045A-4C3F-891F-F1EE4B56C50B}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados" sheetId="1" r:id="rId1"/>
@@ -309,7 +309,7 @@
     <t>Cenário 1: Array aleatória com valores repetidos</t>
   </si>
   <si>
-    <t xml:space="preserve">Leonardo Littig e Victor Carpegiani
+    <t xml:space="preserve">Leonardo Littig,  Victor Carpegiani e Bernardo Petry
 Análise comparativa de tempo dos seguintes métodos de ordenação:  Bubble Sort, Insertion Sort, Selection Sort, Heap Sort, Shell Sort, Merge Sort e Quick Sort.
 Código rodado via python.
 Informações do computador onde foram rodados os testes:
@@ -500,7 +500,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -534,9 +534,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1377,6 +1374,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{41F99066-9E75-4081-BD06-06065240CC0F}" name="Tabela3" displayName="Tabela3" ref="B3:I13" totalsRowShown="0" headerRowDxfId="51" dataDxfId="49" headerRowBorderDxfId="50" tableBorderDxfId="48" totalsRowBorderDxfId="47">
   <autoFilter ref="B3:I13" xr:uid="{41F99066-9E75-4081-BD06-06065240CC0F}">
@@ -1538,7 +1539,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1856,63 +1857,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{791C36F8-55FD-4578-9F10-295239D0B91A}">
   <dimension ref="A2:CT52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.1875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="12.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5859375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.23828125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="60.9375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.1640625" style="1" customWidth="1"/>
-    <col min="16" max="24" width="14.2578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="61" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" style="1" customWidth="1"/>
+    <col min="16" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="60.9375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="38" width="14.390625" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="15.46875" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="12.23828125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="61" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="38" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="60.9375" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="52" width="10.89453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="11.8359375" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="10.22265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="61" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="52" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="60.9375" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="11.56640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="58" max="66" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="11.56640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="10.22265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="61" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="58" max="66" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="69" max="69" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="60.9375" style="1" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="11.43359375" style="1" bestFit="1" customWidth="1"/>
-    <col min="72" max="75" width="11.56640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="12.23828125" style="1" bestFit="1" customWidth="1"/>
-    <col min="77" max="80" width="11.56640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="12.5078125" style="1" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="12.23828125" style="1" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="61" style="1" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="72" max="75" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="77" max="80" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="83" max="83" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="60.9375" style="1" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="9.14453125" style="1"/>
-    <col min="86" max="94" width="12.23828125" style="1" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="12.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="12.23828125" style="1" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="61" style="1" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="9.140625" style="1"/>
+    <col min="86" max="94" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="97" max="97" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="60.9375" style="1" bestFit="1" customWidth="1"/>
-    <col min="99" max="16384" width="9.14453125" style="1"/>
+    <col min="98" max="98" width="61" style="1" bestFit="1" customWidth="1"/>
+    <col min="99" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:98" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:98" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2187,7 +2188,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>128</v>
       </c>
@@ -2504,7 +2505,7 @@
         <v>643990</v>
       </c>
     </row>
-    <row r="5" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>256</v>
       </c>
@@ -2821,7 +2822,7 @@
         <v>2515200</v>
       </c>
     </row>
-    <row r="6" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>512</v>
       </c>
@@ -3138,7 +3139,7 @@
         <v>10659550</v>
       </c>
     </row>
-    <row r="7" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1024</v>
       </c>
@@ -3455,7 +3456,7 @@
         <v>47675280</v>
       </c>
     </row>
-    <row r="8" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2048</v>
       </c>
@@ -3772,7 +3773,7 @@
         <v>203071610</v>
       </c>
     </row>
-    <row r="9" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>4096</v>
       </c>
@@ -4089,7 +4090,7 @@
         <v>830998170</v>
       </c>
     </row>
-    <row r="10" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8192</v>
       </c>
@@ -4406,7 +4407,7 @@
         <v>3402535640</v>
       </c>
     </row>
-    <row r="11" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>16384</v>
       </c>
@@ -4723,7 +4724,7 @@
         <v>13753427020</v>
       </c>
     </row>
-    <row r="12" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>32768</v>
       </c>
@@ -5040,7 +5041,7 @@
         <v>54779485930</v>
       </c>
     </row>
-    <row r="13" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>65536</v>
       </c>
@@ -5357,12 +5358,12 @@
         <v>220099934440</v>
       </c>
     </row>
-    <row r="15" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:98" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:98" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>0</v>
       </c>
@@ -5637,7 +5638,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>128</v>
       </c>
@@ -5954,7 +5955,7 @@
         <v>640270</v>
       </c>
     </row>
-    <row r="18" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>256</v>
       </c>
@@ -6271,7 +6272,7 @@
         <v>2356640</v>
       </c>
     </row>
-    <row r="19" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>512</v>
       </c>
@@ -6588,7 +6589,7 @@
         <v>10307700</v>
       </c>
     </row>
-    <row r="20" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>1024</v>
       </c>
@@ -6905,7 +6906,7 @@
         <v>45929900</v>
       </c>
     </row>
-    <row r="21" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>2048</v>
       </c>
@@ -7222,7 +7223,7 @@
         <v>192435540</v>
       </c>
     </row>
-    <row r="22" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>4096</v>
       </c>
@@ -7539,7 +7540,7 @@
         <v>812203520</v>
       </c>
     </row>
-    <row r="23" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>8192</v>
       </c>
@@ -7856,7 +7857,7 @@
         <v>3265215400</v>
       </c>
     </row>
-    <row r="24" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>16384</v>
       </c>
@@ -8173,7 +8174,7 @@
         <v>13122413970</v>
       </c>
     </row>
-    <row r="25" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>32768</v>
       </c>
@@ -8490,7 +8491,7 @@
         <v>53195406560</v>
       </c>
     </row>
-    <row r="26" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>65536</v>
       </c>
@@ -8807,12 +8808,12 @@
         <v>215146893380</v>
       </c>
     </row>
-    <row r="28" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:98" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:98" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>0</v>
       </c>
@@ -9087,7 +9088,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>128</v>
       </c>
@@ -9404,7 +9405,7 @@
         <v>632820</v>
       </c>
     </row>
-    <row r="31" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>256</v>
       </c>
@@ -9721,7 +9722,7 @@
         <v>2332560</v>
       </c>
     </row>
-    <row r="32" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>512</v>
       </c>
@@ -10038,7 +10039,7 @@
         <v>10526050</v>
       </c>
     </row>
-    <row r="33" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>1024</v>
       </c>
@@ -10355,7 +10356,7 @@
         <v>45842980</v>
       </c>
     </row>
-    <row r="34" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>2048</v>
       </c>
@@ -10672,7 +10673,7 @@
         <v>200929990</v>
       </c>
     </row>
-    <row r="35" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>4096</v>
       </c>
@@ -10989,7 +10990,7 @@
         <v>807049260</v>
       </c>
     </row>
-    <row r="36" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>8192</v>
       </c>
@@ -11306,7 +11307,7 @@
         <v>3275264840</v>
       </c>
     </row>
-    <row r="37" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>16384</v>
       </c>
@@ -11623,7 +11624,7 @@
         <v>13346841490</v>
       </c>
     </row>
-    <row r="38" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>32768</v>
       </c>
@@ -11940,7 +11941,7 @@
         <v>53654473650</v>
       </c>
     </row>
-    <row r="39" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>65536</v>
       </c>
@@ -12257,12 +12258,12 @@
         <v>213599265370</v>
       </c>
     </row>
-    <row r="41" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:98" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:98" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>0</v>
       </c>
@@ -12537,7 +12538,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>128</v>
       </c>
@@ -12579,7 +12580,7 @@
         <f t="shared" si="1"/>
         <v>44538.074847383235</v>
       </c>
-      <c r="N43" s="13">
+      <c r="N43" s="2">
         <f t="shared" si="2"/>
         <v>579370</v>
       </c>
@@ -12854,7 +12855,7 @@
         <v>636740</v>
       </c>
     </row>
-    <row r="44" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>256</v>
       </c>
@@ -13171,7 +13172,7 @@
         <v>2396620</v>
       </c>
     </row>
-    <row r="45" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>512</v>
       </c>
@@ -13488,7 +13489,7 @@
         <v>10240330</v>
       </c>
     </row>
-    <row r="46" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>1024</v>
       </c>
@@ -13805,7 +13806,7 @@
         <v>45333110</v>
       </c>
     </row>
-    <row r="47" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>2048</v>
       </c>
@@ -14122,7 +14123,7 @@
         <v>191578700</v>
       </c>
     </row>
-    <row r="48" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>4096</v>
       </c>
@@ -14439,7 +14440,7 @@
         <v>793190240</v>
       </c>
     </row>
-    <row r="49" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>8192</v>
       </c>
@@ -14756,7 +14757,7 @@
         <v>3234027210</v>
       </c>
     </row>
-    <row r="50" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>16384</v>
       </c>
@@ -15073,7 +15074,7 @@
         <v>13117132870</v>
       </c>
     </row>
-    <row r="51" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>32768</v>
       </c>
@@ -15390,7 +15391,7 @@
         <v>54161234980</v>
       </c>
     </row>
-    <row r="52" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>65536</v>
       </c>
@@ -15721,47 +15722,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F4E3029-467D-450C-9201-3996075CAF8C}">
   <dimension ref="B2:R44"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:R41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.328125" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" customWidth="1"/>
-    <col min="4" max="4" width="14.796875" customWidth="1"/>
-    <col min="5" max="5" width="14.9296875" customWidth="1"/>
-    <col min="6" max="6" width="11.56640625" customWidth="1"/>
-    <col min="7" max="7" width="11.296875" customWidth="1"/>
-    <col min="8" max="8" width="12.23828125" customWidth="1"/>
-    <col min="9" max="9" width="12.10546875" customWidth="1"/>
-    <col min="11" max="11" width="22.328125" customWidth="1"/>
-    <col min="12" max="12" width="13.1796875" customWidth="1"/>
-    <col min="13" max="13" width="14.796875" customWidth="1"/>
-    <col min="14" max="14" width="14.9296875" customWidth="1"/>
-    <col min="15" max="15" width="11.56640625" customWidth="1"/>
-    <col min="16" max="16" width="11.296875" customWidth="1"/>
-    <col min="17" max="17" width="12.23828125" customWidth="1"/>
-    <col min="18" max="18" width="12.10546875" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="11" max="11" width="22.28515625" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" customWidth="1"/>
+    <col min="14" max="14" width="15" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" customWidth="1"/>
+    <col min="18" max="18" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="16" t="s">
+    <row r="2" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="K2" s="16" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="K2" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
     </row>
-    <row r="3" spans="2:18" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:18" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
         <v>77</v>
       </c>
@@ -15812,7 +15813,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" s="6">
         <v>128</v>
       </c>
@@ -15877,7 +15878,7 @@
         <v>640270</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="6">
         <v>256</v>
       </c>
@@ -15942,7 +15943,7 @@
         <v>2356640</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="6">
         <v>512</v>
       </c>
@@ -16007,7 +16008,7 @@
         <v>10307700</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="6">
         <v>1024</v>
       </c>
@@ -16072,7 +16073,7 @@
         <v>45929900</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="6">
         <v>2048</v>
       </c>
@@ -16137,7 +16138,7 @@
         <v>192435540</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="6">
         <v>4096</v>
       </c>
@@ -16202,7 +16203,7 @@
         <v>812203520</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="6">
         <v>8192</v>
       </c>
@@ -16267,7 +16268,7 @@
         <v>3265215400</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
         <v>16384</v>
       </c>
@@ -16332,7 +16333,7 @@
         <v>13122413970</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="6">
         <v>32768</v>
       </c>
@@ -16397,7 +16398,7 @@
         <v>53195406560</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="8">
         <v>65536</v>
       </c>
@@ -16462,7 +16463,7 @@
         <v>215146893380</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -16481,30 +16482,30 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B15" s="17" t="s">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B15" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="18" t="s">
+      <c r="K15" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="20"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="19"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
     </row>
-    <row r="16" spans="2:18" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>77</v>
       </c>
@@ -16555,7 +16556,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="6">
         <v>128</v>
       </c>
@@ -16620,7 +16621,7 @@
         <v>636740</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="6">
         <v>256</v>
       </c>
@@ -16685,7 +16686,7 @@
         <v>2396620</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="6">
         <v>512</v>
       </c>
@@ -16750,7 +16751,7 @@
         <v>10240330</v>
       </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="6">
         <v>1024</v>
       </c>
@@ -16815,7 +16816,7 @@
         <v>45333110</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="6">
         <v>2048</v>
       </c>
@@ -16880,7 +16881,7 @@
         <v>191578700</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="6">
         <v>4096</v>
       </c>
@@ -16945,7 +16946,7 @@
         <v>793190240</v>
       </c>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="6">
         <v>8192</v>
       </c>
@@ -17010,7 +17011,7 @@
         <v>3234027210</v>
       </c>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24" s="6">
         <v>16384</v>
       </c>
@@ -17075,7 +17076,7 @@
         <v>13117132870</v>
       </c>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" s="6">
         <v>32768</v>
       </c>
@@ -17140,7 +17141,7 @@
         <v>54161234980</v>
       </c>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B26" s="8">
         <v>65536</v>
       </c>
@@ -17205,275 +17206,275 @@
         <v>224630878600</v>
       </c>
     </row>
-    <row r="28" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="14" t="s">
+    <row r="28" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="15"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="15"/>
-      <c r="R29" s="15"/>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="15"/>
-      <c r="R30" s="15"/>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="15"/>
-      <c r="R31" s="15"/>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="15"/>
-      <c r="Q32" s="15"/>
-      <c r="R32" s="15"/>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="15"/>
-      <c r="P33" s="15"/>
-      <c r="Q33" s="15"/>
-      <c r="R33" s="15"/>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="14"/>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="15"/>
-      <c r="O34" s="15"/>
-      <c r="P34" s="15"/>
-      <c r="Q34" s="15"/>
-      <c r="R34" s="15"/>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="14"/>
     </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="15"/>
-      <c r="O35" s="15"/>
-      <c r="P35" s="15"/>
-      <c r="Q35" s="15"/>
-      <c r="R35" s="15"/>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="14"/>
     </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="15"/>
-      <c r="O36" s="15"/>
-      <c r="P36" s="15"/>
-      <c r="Q36" s="15"/>
-      <c r="R36" s="15"/>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="14"/>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="15"/>
-      <c r="O37" s="15"/>
-      <c r="P37" s="15"/>
-      <c r="Q37" s="15"/>
-      <c r="R37" s="15"/>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="14"/>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="15"/>
-      <c r="O38" s="15"/>
-      <c r="P38" s="15"/>
-      <c r="Q38" s="15"/>
-      <c r="R38" s="15"/>
+    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="15"/>
-      <c r="P39" s="15"/>
-      <c r="Q39" s="15"/>
-      <c r="R39" s="15"/>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="14"/>
     </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="15"/>
-      <c r="M40" s="15"/>
-      <c r="N40" s="15"/>
-      <c r="O40" s="15"/>
-      <c r="P40" s="15"/>
-      <c r="Q40" s="15"/>
-      <c r="R40" s="15"/>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="14"/>
     </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="15"/>
-      <c r="L41" s="15"/>
-      <c r="M41" s="15"/>
-      <c r="N41" s="15"/>
-      <c r="O41" s="15"/>
-      <c r="P41" s="15"/>
-      <c r="Q41" s="15"/>
-      <c r="R41" s="15"/>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="14"/>
+      <c r="Q41" s="14"/>
+      <c r="R41" s="14"/>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C44" s="7"/>
     </row>
   </sheetData>
